--- a/medicine/Mort/Marie_Stuart_protestant_de_son_innocence_à_la_lecture_de_sa_condamnation_à_mort/Marie_Stuart_protestant_de_son_innocence_à_la_lecture_de_sa_condamnation_à_mort.xlsx
+++ b/medicine/Mort/Marie_Stuart_protestant_de_son_innocence_à_la_lecture_de_sa_condamnation_à_mort/Marie_Stuart_protestant_de_son_innocence_à_la_lecture_de_sa_condamnation_à_mort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marie_Stuart_protestant_de_son_innocence_%C3%A0_la_lecture_de_sa_condamnation_%C3%A0_mort</t>
+          <t>Marie_Stuart_protestant_de_son_innocence_à_la_lecture_de_sa_condamnation_à_mort</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Marie Stuart protestant de son innocence à la lecture de sa condamnation à mort est un tableau peint par Francesco Hayez en 1832. 
-Entre 2011 et 2012, il est conservé à la galerie Michel Descours à Lyon[1]. Il est acquis par le musée du Louvre en 2012. En 2014, le tableau est prêté au musée des beaux-arts de Lyon dans le cadre de l'exposition L'invention du Passé. Histoires de cœur et d'épée 1802-1850.
+Entre 2011 et 2012, il est conservé à la galerie Michel Descours à Lyon. Il est acquis par le musée du Louvre en 2012. En 2014, le tableau est prêté au musée des beaux-arts de Lyon dans le cadre de l'exposition L'invention du Passé. Histoires de cœur et d'épée 1802-1850.
 </t>
         </is>
       </c>
